--- a/data/income_statement/3digits/total/951_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/951_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>951-Repair of computers and communication equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>951-Repair of computers and communication equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>589599.36362</v>
@@ -956,19 +862,19 @@
         <v>661411.2843399999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>840375.7008799999</v>
+        <v>840375.70088</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>639207.13138</v>
+        <v>639213.9494800001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>691490.8371</v>
+        <v>691766.009</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>816126.99737</v>
+        <v>816546.4982799999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1160984.11372</v>
+        <v>1161882.12819</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>1239234.21996</v>
@@ -977,16 +883,21 @@
         <v>1287922.10782</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1665569.99374</v>
+        <v>1668475.41086</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1491998.47386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1501258.02083</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2032262.479</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>549918.89201</v>
@@ -998,16 +909,16 @@
         <v>785978.9068199999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>576332.9971599999</v>
+        <v>576339.8152599999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>621819.9497699999</v>
+        <v>622095.12167</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>744712.22833</v>
+        <v>745131.72924</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1070645.27887</v>
+        <v>1071378.88549</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>1155900.39223</v>
@@ -1016,16 +927,21 @@
         <v>1203947.262</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1590681.07296</v>
+        <v>1593530.25321</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1408246.8022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1414589.41957</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1890035.375</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>21959.56342</v>
@@ -1040,31 +956,36 @@
         <v>48588.32037</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>51654.72199</v>
+        <v>51654.72199000001</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>50390.83484</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>51099.70113</v>
+        <v>51264.10898</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>56398.15676000001</v>
+        <v>56398.15676</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>63597.61098</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>54686.50383000001</v>
+        <v>54686.50383</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>62005.68186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>62052.22441</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>116404.872</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>17720.90819</v>
@@ -1094,22 +1015,27 @@
         <v>20377.23484</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>20202.41695</v>
+        <v>20258.65382</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>21745.9898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>24616.37685</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>25822.232</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>9144.03126</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7215.388249999999</v>
+        <v>7215.38825</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>7869.79313</v>
@@ -1118,10 +1044,10 @@
         <v>4477.17209</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6465.212259999999</v>
+        <v>6467.303650000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9015.71515</v>
+        <v>9016.03465</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>31713.69396</v>
@@ -1136,13 +1062,18 @@
         <v>13525.94242</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>24739.77604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>24744.80435</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19632.072</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4919.545230000001</v>
@@ -1157,10 +1088,10 @@
         <v>3727.40563</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4660.286069999999</v>
+        <v>4662.37746</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5296.30034</v>
+        <v>5296.61984</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>19954.80952</v>
@@ -1175,13 +1106,18 @@
         <v>13215.66639</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22558.92773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22563.90773</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>17610.55</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4104.63233</v>
@@ -1214,13 +1150,18 @@
         <v>110.99774</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>449.32578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>449.37409</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>184.536</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>119.8537</v>
@@ -1255,32 +1196,37 @@
       <c r="M12" s="48" t="n">
         <v>1731.52253</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1836.986</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>580455.3323599999</v>
+        <v>580455.33236</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>654195.8960899999</v>
+        <v>654195.8960900001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>832505.9077500001</v>
+        <v>832505.90775</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>634729.9592899999</v>
+        <v>634736.7773900001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>685025.6248400001</v>
+        <v>685298.7053500001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>807111.2822200001</v>
+        <v>807530.46363</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1129270.41976</v>
+        <v>1130168.43423</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>1222956.94275</v>
@@ -1289,16 +1235,21 @@
         <v>1274563.2526</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1652044.05132</v>
+        <v>1654949.46844</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1467258.69782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1476513.21648</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2012630.407</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>464901.15402</v>
@@ -1310,16 +1261,16 @@
         <v>705294.35797</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>518179.32114</v>
+        <v>518180.45749</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>566688.00264</v>
+        <v>566900.0665800001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>662361.4793</v>
+        <v>662710.95664</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>921525.2086700002</v>
+        <v>922309.24417</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>1009540.97321</v>
@@ -1328,22 +1279,27 @@
         <v>1061773.51742</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1440685.31217</v>
+        <v>1442906.58998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1238569.85709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1243838.0757</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1719089.961</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4966.13516</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5764.887519999999</v>
+        <v>5764.88752</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>8793.588890000001</v>
@@ -1370,13 +1326,18 @@
         <v>19380.26824</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>21264.92074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21408.7878</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>29834.34</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>304353.16408</v>
@@ -1385,19 +1346,19 @@
         <v>323591.27404</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>409633.02269</v>
+        <v>409633.0226900001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>216712.25813</v>
+        <v>216713.39448</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>242879.62162</v>
+        <v>242903.985</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>287661.59989</v>
+        <v>287951.23377</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>483408.6504200001</v>
+        <v>484111.43175</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>554827.11763</v>
@@ -1406,16 +1367,21 @@
         <v>485219.5372</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>607495.97558</v>
+        <v>607898.3774499999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>635349.0570499999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>637625.87924</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>935101.767</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>155308.04766</v>
@@ -1430,13 +1396,13 @@
         <v>286881.25017</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>305576.99013</v>
+        <v>305764.69069</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>344497.40747</v>
+        <v>344557.25093</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>408559.94346</v>
+        <v>408641.19763</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>433772.98996</v>
@@ -1445,16 +1411,21 @@
         <v>530602.64668</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>808539.2097</v>
+        <v>810358.0856399999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>559056.05464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>561903.584</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>749168.287</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>273.80712</v>
@@ -1472,7 +1443,7 @@
         <v>2772.36613</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4459.8549</v>
+        <v>4459.854899999999</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>3649.70338</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>22899.82466</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4985.567</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>115554.17834</v>
@@ -1505,16 +1481,16 @@
         <v>127211.54978</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>116550.63815</v>
+        <v>116556.3199</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>118337.6222</v>
+        <v>118398.63877</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>144749.80292</v>
+        <v>144819.50699</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>207745.21109</v>
+        <v>207859.19006</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>213415.96954</v>
@@ -1523,16 +1499,21 @@
         <v>212789.73518</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>211358.73915</v>
+        <v>212042.87846</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>228688.84073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>232675.14078</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>293540.446</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>103390.06362</v>
@@ -1544,16 +1525,16 @@
         <v>146399.70106</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>104028.57838</v>
+        <v>104030.51921</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>103172.59474</v>
+        <v>103253.09652</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>111220.70103</v>
+        <v>111347.32521</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>146005.85843</v>
+        <v>146191.89578</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>168096.49004</v>
@@ -1562,16 +1543,21 @@
         <v>138886.58551</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>166667.29923</v>
+        <v>167510.17888</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>178003.0284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>179089.47619</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>180192.248</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1515.33845</v>
@@ -1604,13 +1590,18 @@
         <v>556.8581799999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2362.82761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2297.45121</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>166.571</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>41792.02917</v>
@@ -1625,31 +1616,36 @@
         <v>23219.89719</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25461.05283</v>
+        <v>25469.54559</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>26179.6174</v>
+        <v>26184.05707</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>27609.9884</v>
+        <v>27689.04061</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>39002.75165999999</v>
+        <v>39002.75166</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>33818.35947</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>40719.28795000001</v>
+        <v>40755.86795</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>44720.37736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>44769.38837000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>43234.141</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>60082.696</v>
@@ -1661,16 +1657,16 @@
         <v>80868.57678</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>80077.99184</v>
+        <v>80079.93266999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>76845.42117</v>
+        <v>76917.43019</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>84875.77231999999</v>
+        <v>84997.95683</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>118318.59506</v>
+        <v>118425.5802</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>114395.35634</v>
@@ -1679,16 +1675,21 @@
         <v>104521.57032</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>125391.1531</v>
+        <v>126197.45275</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>130919.82343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>132022.63661</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>136791.536</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>12164.11472</v>
@@ -1697,37 +1698,42 @@
         <v>16472.27963</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-19188.15128</v>
+        <v>-19188.15128000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>12522.05977</v>
+        <v>12525.80069</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>15165.02746</v>
+        <v>15145.54225</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>33529.10189</v>
+        <v>33472.18178</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>61739.35266</v>
+        <v>61667.29427999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>45319.4795</v>
+        <v>45319.47949999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>73903.14967</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>44691.43992</v>
+        <v>44532.69958</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>50685.81233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>53585.66458999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>113348.198</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>29586.61182</v>
@@ -1736,19 +1742,19 @@
         <v>24878.85385</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>40402.7217</v>
+        <v>40402.72169999999</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>32919.41539</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>40260.2427</v>
+        <v>40260.81163</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>32690.09138</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>41976.98012000001</v>
+        <v>41992.28208</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>21036.96142</v>
@@ -1757,16 +1763,21 @@
         <v>25793.60611</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>75116.27002</v>
+        <v>75129.91644</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>38998.34514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>39005.19038</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>72986.012</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>28.0048</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0.06408</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>369.81039</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1335.89544</v>
@@ -1874,16 +1895,21 @@
         <v>3199.50614</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4941.42449</v>
+        <v>4956.65949</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5132.283939999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5133.96504</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3925.831</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>176.54096</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>66.77925</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>123.521</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>145.372</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>128.228</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>78.55</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>50.08401</v>
+        <v>50.08400999999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>42.27939</v>
@@ -1976,7 +2012,7 @@
         <v>70.1885</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>49.04396</v>
+        <v>49.04396000000001</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>88.39528</v>
@@ -1994,13 +2030,18 @@
         <v>156.32128</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>199.12881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>199.64368</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>556.2809999999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>24063.19511</v>
@@ -2021,7 +2062,7 @@
         <v>25244.93271</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>37638.22959999999</v>
+        <v>37653.48525</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>13905.63876</v>
@@ -2033,13 +2074,18 @@
         <v>55500.65532</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>21400.10217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>21403.98344</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>48354.676</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.65</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3417.05911</v>
@@ -2132,31 +2188,36 @@
         <v>2465.73035</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1597.87258</v>
+        <v>1598.44151</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>1924.72007</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1426.99303</v>
+        <v>1427.03934</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2825.533980000001</v>
+        <v>2825.53398</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4843.738739999999</v>
+        <v>4843.73874</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7788.44523</v>
+        <v>7786.85665</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>12071.75889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>12072.52689</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19946.613</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>26319.88649</v>
@@ -2171,13 +2232,13 @@
         <v>24760.73761</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>51324.94945</v>
+        <v>51324.95548</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>36131.33456</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>63113.39293000001</v>
+        <v>63116.75277000001</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>25016.10424</v>
@@ -2189,19 +2250,24 @@
         <v>39116.56889</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>23339.39839</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>23569.69825</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>38576.934</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>384.91464</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>69.68198999999998</v>
+        <v>69.68199</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>225.45755</v>
@@ -2228,13 +2294,18 @@
         <v>297.63467</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>220.84577</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>222.17077</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>221.527</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2241.39925</v>
@@ -2267,13 +2338,18 @@
         <v>1233.37027</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1987.66916</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1986.34416</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1676.914</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4.38035</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>86.16894000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>14.751</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>22609.70726</v>
@@ -2333,7 +2414,7 @@
         <v>31113.38437</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>50741.33686</v>
+        <v>50744.69615</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>12274.91845</v>
@@ -2345,13 +2426,18 @@
         <v>31637.54082</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11479.12934</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11504.42903</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>25337.302</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1079.48499</v>
@@ -2444,13 +2540,13 @@
         <v>2123.88455</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2512.40513</v>
+        <v>2512.41116</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>4621.05832</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>10062.06838</v>
+        <v>10062.06893</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>11691.44071</v>
@@ -2462,34 +2558,39 @@
         <v>5918.20128</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9565.58518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9770.585349999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11326.44</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>12741.46979</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9425.030650000001</v>
+        <v>9425.030649999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>19054.76607</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6056.74097</v>
+        <v>6056.740970000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4607.50685</v>
+        <v>4616.076470000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6176.72957</v>
+        <v>6178.664029999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6333.04451</v>
+        <v>6349.27862</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>7115.37441</v>
@@ -2498,16 +2599,21 @@
         <v>8661.357120000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>14059.92687</v>
+        <v>14081.24458</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>15801.13179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>16010.86866</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15663.14</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>12694.49134</v>
@@ -2522,13 +2628,13 @@
         <v>5913.0371</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4590.9309</v>
+        <v>4599.50052</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6164.32292</v>
+        <v>6166.257380000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6285.13177</v>
+        <v>6301.365879999999</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>7097.56979</v>
@@ -2537,16 +2643,21 @@
         <v>8619.92481</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>14001.78731</v>
+        <v>14023.10502</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>15680.91782</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>15890.65469</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>15578.344</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>46.97845</v>
@@ -2581,32 +2692,37 @@
       <c r="M46" s="48" t="n">
         <v>120.21397</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>84.79600000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2689.370260000001</v>
+        <v>2689.37026</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>12586.6527</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-53575.23727999999</v>
+        <v>-53575.23728</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14623.99658</v>
+        <v>14627.7375</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-507.1861400000006</v>
+        <v>-534.6780699999994</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>23911.12914</v>
+        <v>23852.27457</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>34269.89534</v>
+        <v>34193.54497</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>34224.96227</v>
@@ -2615,16 +2731,21 @@
         <v>64213.92144</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>66631.21418</v>
+        <v>66464.80254999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>50543.62729</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>53010.28806</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>132094.136</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1994.98563</v>
@@ -2651,19 +2772,24 @@
         <v>14232.78005</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6550.425230000001</v>
+        <v>6550.42523</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10071.22023</v>
+        <v>10105.96355</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7609.02016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7688.9806</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8108.617</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>63.05027</v>
@@ -2696,13 +2822,18 @@
         <v>37.5389</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>561.07627</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>631.07627</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1931.93536</v>
@@ -2723,37 +2854,42 @@
         <v>2743.37909</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3553.93294</v>
+        <v>3553.932940000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>14200.43538</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6369.246630000001</v>
+        <v>6369.24663</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>10033.68133</v>
+        <v>10068.42465</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7047.94389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7057.90433</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8108.617</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3100.84372</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4834.351439999999</v>
+        <v>4834.35144</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>21158.41176</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13899.57046</v>
+        <v>13910.39247</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>8201.11808</v>
@@ -2762,7 +2898,7 @@
         <v>8785.87285</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>11640.20719</v>
+        <v>11653.09433</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>13637.78342</v>
@@ -2771,16 +2907,21 @@
         <v>8604.68318</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>28092.23919</v>
+        <v>28131.73546</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6698.099099999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6734.77033</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>9857.849</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>89.51771000000001</v>
@@ -2804,7 +2945,7 @@
         <v>33.80381</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>61.78332999999999</v>
+        <v>61.78333</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,20 +2956,25 @@
       <c r="M52" s="48" t="n">
         <v>17.84954</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>387.8902399999999</v>
+        <v>387.89024</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>634.0805600000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>495.6422499999999</v>
+        <v>495.64225</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>666.6630399999999</v>
@@ -2843,7 +2989,7 @@
         <v>513.04038</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>33.81720000000001</v>
+        <v>33.8172</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>131.80526</v>
@@ -2852,13 +2998,18 @@
         <v>192.50982</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>255.15677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>257.77856</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>443.084</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2623.43577</v>
@@ -2870,7 +3021,7 @@
         <v>20617.10393</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13076.11954</v>
+        <v>13086.94155</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>7885.784320000001</v>
@@ -2879,7 +3030,7 @@
         <v>7561.56701</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11093.363</v>
+        <v>11106.25014</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>13542.18289</v>
@@ -2888,16 +3039,21 @@
         <v>8472.877920000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>27899.72937</v>
+        <v>27939.22564</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6425.092790000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6459.142229999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>9414.764999999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1583.51217</v>
@@ -2906,19 +3062,19 @@
         <v>11169.00596</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-65284.29208999999</v>
+        <v>-65284.29209</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3308.989439999999</v>
+        <v>3301.90835</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5925.313410000001</v>
+        <v>-5952.805339999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>17984.09976</v>
+        <v>17925.24519</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>26210.31203</v>
+        <v>26121.07452</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>34819.95890000001</v>
@@ -2927,76 +3083,86 @@
         <v>62159.66348999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>48610.19522</v>
+        <v>48439.03064</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>51454.54835</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>53964.49832999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>130344.904</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2902.90883</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3432.15429</v>
+        <v>3432.154289999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7092.677959999999</v>
+        <v>7092.67796</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>5289.05035</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5888.19593</v>
+        <v>5888.545549999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7097.53488</v>
+        <v>7097.81574</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>9214.80386</v>
+        <v>9215.95815</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9963.458600000002</v>
+        <v>9963.4586</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>14683.60738</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>21331.93038</v>
+        <v>21349.12454</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14076.25616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>14146.52247</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>29592.741</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-1319.39666</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>7736.851670000001</v>
+        <v>7736.85167</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-72376.97005</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1980.060910000001</v>
+        <v>-1987.142000000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-11813.50934</v>
+        <v>-11841.35089</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>10886.56488</v>
+        <v>10827.42945</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>16995.50817</v>
+        <v>16905.11637</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>24856.5003</v>
@@ -3005,13 +3171,16 @@
         <v>47476.05611</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>27278.26484</v>
+        <v>27089.9061</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>37378.29219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>39817.97586</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>100752.163</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>523</v>
@@ -3041,31 +3213,34 @@
         <v>570</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>582</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>592</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>